--- a/Jsonfiles/CustomDevice.xlsx
+++ b/Jsonfiles/CustomDevice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spokhriyal\Desktop\Home\Study\Python\New_Start_Ireland\Learning Codes\CodeInGIT\BotX\Jsonfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F570868C-F020-49CF-B2C3-A32F1E9BC5A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9B06E2-3FFC-4869-AC88-3E1019046BC8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3790" yWindow="840" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4060" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceList" sheetId="1" r:id="rId1"/>
@@ -58,16 +58,16 @@
     <t>show ip int brief</t>
   </si>
   <si>
-    <t>show cdp nei</t>
-  </si>
-  <si>
-    <t>show version</t>
-  </si>
-  <si>
     <t>Router3</t>
   </si>
   <si>
     <t>192.168.48.4</t>
+  </si>
+  <si>
+    <t>Router4</t>
+  </si>
+  <si>
+    <t>192.168.48.5</t>
   </si>
 </sst>
 </file>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -514,15 +514,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
@@ -558,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFE6A85-F241-437A-BA79-BD38DB7BA742}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -586,14 +590,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>

--- a/Jsonfiles/CustomDevice.xlsx
+++ b/Jsonfiles/CustomDevice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spokhriyal\Desktop\Home\Study\Python\New_Start_Ireland\Learning Codes\CodeInGIT\BotX\Jsonfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9B06E2-3FFC-4869-AC88-3E1019046BC8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE27091B-0742-4D76-9858-53408A149106}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4060" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -62,12 +62,6 @@
   </si>
   <si>
     <t>192.168.48.4</t>
-  </si>
-  <si>
-    <t>Router4</t>
-  </si>
-  <si>
-    <t>192.168.48.5</t>
   </si>
 </sst>
 </file>
@@ -521,12 +515,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>

--- a/Jsonfiles/CustomDevice.xlsx
+++ b/Jsonfiles/CustomDevice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spokhriyal\Desktop\Home\Study\Python\New_Start_Ireland\Learning Codes\CodeInGIT\BotX\Jsonfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE27091B-0742-4D76-9858-53408A149106}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7142B0-A9C9-4BDF-BEE1-D95B1782595E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4060" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>192.168.48.4</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>192.168.48.5</t>
   </si>
 </sst>
 </file>
@@ -515,8 +521,12 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
